--- a/historicocomissoes/202404/credito/credito.xlsx
+++ b/historicocomissoes/202404/credito/credito.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76f97ab02c6af1f0/Miha/Comissões/PJ2/03.2024 - XP P2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76f97ab02c6af1f0/Miha/Comissões/PJ2/04.2024 - XP P2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C94769D-4C4A-43D4-BC88-89C9CD46C595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6028BCC4-8FF1-4A79-818B-8D393236E7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35550" yWindow="4455" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
   <si>
     <t>Classificação</t>
   </si>
@@ -64,67 +64,160 @@
     <t>Receitas</t>
   </si>
   <si>
+    <t>Crédito Colateralizado</t>
+  </si>
+  <si>
+    <t>800368775</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>Contratação 18/03/2024 | Vencimento 18/05/2024</t>
+  </si>
+  <si>
+    <t>A20207</t>
+  </si>
+  <si>
+    <t>01/04/2024</t>
+  </si>
+  <si>
+    <t>800286432</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>Contratação 16/08/2023 | Vencimento 15/08/2024</t>
+  </si>
+  <si>
+    <t>A22579</t>
+  </si>
+  <si>
+    <t>800264376</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>Contratação 19/06/2023 | Vencimento 08/06/2025</t>
+  </si>
+  <si>
+    <t>800350156</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>Contratação 01/02/2024 | Vencimento 16/01/2026</t>
+  </si>
+  <si>
+    <t>800023319</t>
+  </si>
+  <si>
+    <t>46000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Contratação 26/11/2020 | Vencimento 05/08/2026</t>
+  </si>
+  <si>
+    <t>A72389</t>
+  </si>
+  <si>
+    <t>800183685</t>
+  </si>
+  <si>
+    <t>25416,85</t>
+  </si>
+  <si>
+    <t>Contratação 14/10/2022 | Vencimento 27/09/2025</t>
+  </si>
+  <si>
+    <t>A72495</t>
+  </si>
+  <si>
+    <t>800192483</t>
+  </si>
+  <si>
+    <t>220000</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
+    <t>Contratação 10/11/2022 | Vencimento 25/10/2025</t>
+  </si>
+  <si>
+    <t>A69861</t>
+  </si>
+  <si>
+    <t>800311146</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>0.0075</t>
+  </si>
+  <si>
+    <t>Contratação 23/10/2023 | Vencimento 20/11/2027</t>
+  </si>
+  <si>
+    <t>IAXP</t>
+  </si>
+  <si>
+    <t>800364090</t>
+  </si>
+  <si>
+    <t>34029,61</t>
+  </si>
+  <si>
+    <t>0,03</t>
+  </si>
+  <si>
+    <t>Contratação 05/03/2024 | Vencimento 04/04/2024</t>
+  </si>
+  <si>
+    <t>800365962</t>
+  </si>
+  <si>
+    <t>Contratação 11/03/2024 | Vencimento 05/10/2024</t>
+  </si>
+  <si>
     <t>Estruturados</t>
   </si>
   <si>
-    <t>800311146</t>
-  </si>
-  <si>
-    <t>50000</t>
-  </si>
-  <si>
-    <t>0.0075</t>
-  </si>
-  <si>
-    <t>Contratação 23/10/2023 | Vencimento 20/11/2027</t>
-  </si>
-  <si>
-    <t>A69861</t>
-  </si>
-  <si>
-    <t>01/03/2024</t>
-  </si>
-  <si>
-    <t>800023319</t>
-  </si>
-  <si>
-    <t>46000</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Contratação 26/11/2020 | Vencimento 05/08/2026</t>
-  </si>
-  <si>
-    <t>A72389</t>
-  </si>
-  <si>
-    <t>800192483</t>
-  </si>
-  <si>
-    <t>220000</t>
-  </si>
-  <si>
-    <t>0.006</t>
-  </si>
-  <si>
-    <t>Contratação 10/11/2022 | Vencimento 25/10/2025</t>
-  </si>
-  <si>
-    <t>800362174</t>
-  </si>
-  <si>
-    <t>193569,18</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>Contratação 29/02/2024 | Vencimento 01/03/2024</t>
-  </si>
-  <si>
-    <t>A67370</t>
+    <t>800298997</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>Contratação 19/09/2023 | Vencimento 25/09/2026</t>
+  </si>
+  <si>
+    <t>800377654</t>
+  </si>
+  <si>
+    <t>28000</t>
+  </si>
+  <si>
+    <t>Contratação 08/04/2024 | Vencimento 06/04/2027</t>
+  </si>
+  <si>
+    <t>800280189</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>Contratação 01/08/2023 | Vencimento 01/08/2024</t>
   </si>
 </sst>
 </file>
@@ -494,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -566,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="G2">
-        <v>8666755</v>
+        <v>3116193</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
@@ -575,16 +668,16 @@
         <v>20</v>
       </c>
       <c r="J2" s="1">
-        <v>32.42</v>
+        <v>0.65</v>
       </c>
       <c r="K2" s="1">
-        <v>30.91</v>
+        <v>0.62</v>
       </c>
       <c r="L2" s="1">
         <v>100</v>
       </c>
       <c r="M2" s="1">
-        <v>30.91</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
@@ -601,31 +694,31 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3">
+        <v>9137091</v>
+      </c>
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="G3">
-        <v>4100293</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
       <c r="I3" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>11.63</v>
       </c>
       <c r="L3" s="1">
         <v>100</v>
       </c>
       <c r="M3" s="1">
-        <v>0</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
@@ -636,37 +729,37 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
       <c r="G4">
-        <v>2129768</v>
+        <v>5738762</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="1">
-        <v>131.28</v>
+        <v>9.91</v>
       </c>
       <c r="K4" s="1">
-        <v>125.17</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="L4" s="1">
         <v>100</v>
       </c>
       <c r="M4" s="1">
-        <v>125.17</v>
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
@@ -677,37 +770,406 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5">
+        <v>3320327</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4.08</v>
+      </c>
+      <c r="L5" s="1">
+        <v>100</v>
+      </c>
+      <c r="M5" s="1">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="G5">
-        <v>11290302</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="1">
-        <v>16.13</v>
-      </c>
-      <c r="K5" s="1">
-        <v>15.38</v>
-      </c>
-      <c r="L5" s="1">
-        <v>100</v>
-      </c>
-      <c r="M5" s="1">
-        <v>15.38</v>
+      <c r="G6">
+        <v>4100293</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>100</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7">
+        <v>7058773</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1">
+        <v>14.44</v>
+      </c>
+      <c r="K7" s="1">
+        <v>13.76</v>
+      </c>
+      <c r="L7" s="1">
+        <v>100</v>
+      </c>
+      <c r="M7" s="1">
+        <v>13.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8">
+        <v>2129768</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1">
+        <v>142.24</v>
+      </c>
+      <c r="K8" s="1">
+        <v>135.62</v>
+      </c>
+      <c r="L8" s="1">
+        <v>100</v>
+      </c>
+      <c r="M8" s="1">
+        <v>135.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9">
+        <v>8666755</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="1">
+        <v>35.229999999999997</v>
+      </c>
+      <c r="K9" s="1">
+        <v>33.590000000000003</v>
+      </c>
+      <c r="L9" s="1">
+        <v>100</v>
+      </c>
+      <c r="M9" s="1">
+        <v>33.590000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10">
+        <v>5249315</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="1">
+        <v>85.07</v>
+      </c>
+      <c r="K10" s="1">
+        <v>81.12</v>
+      </c>
+      <c r="L10" s="1">
+        <v>100</v>
+      </c>
+      <c r="M10" s="1">
+        <v>81.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11">
+        <v>12384577</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1">
+        <v>11.21</v>
+      </c>
+      <c r="K11" s="1">
+        <v>10.69</v>
+      </c>
+      <c r="L11" s="1">
+        <v>100</v>
+      </c>
+      <c r="M11" s="1">
+        <v>10.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12">
+        <v>7298496</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="1">
+        <v>230.09</v>
+      </c>
+      <c r="K12" s="1">
+        <v>219.39</v>
+      </c>
+      <c r="L12" s="1">
+        <v>100</v>
+      </c>
+      <c r="M12" s="1">
+        <v>219.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13">
+        <v>3694979</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="K13" s="1">
+        <v>8.82</v>
+      </c>
+      <c r="L13" s="1">
+        <v>100</v>
+      </c>
+      <c r="M13" s="1">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14">
+        <v>2523970</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="1">
+        <v>100.88</v>
+      </c>
+      <c r="K14" s="1">
+        <v>96.19</v>
+      </c>
+      <c r="L14" s="1">
+        <v>100</v>
+      </c>
+      <c r="M14" s="1">
+        <v>96.19</v>
       </c>
     </row>
   </sheetData>
